--- a/7rmartProject/src/test/resources/TestData.xlsx
+++ b/7rmartProject/src/test/resources/TestData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="10730" windowHeight="3120"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="10730" windowHeight="3220" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="News" sheetId="2" r:id="rId2"/>
+    <sheet name="Admin_User" sheetId="3" r:id="rId3"/>
+    <sheet name="Categories" sheetId="4" r:id="rId4"/>
+    <sheet name="SubCategories" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:H9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -35,16 +37,69 @@
   </si>
   <si>
     <t>admi</t>
+  </si>
+  <si>
+    <t>Everything get 50% offer</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>User Type</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Search Items</t>
+  </si>
+  <si>
+    <t>unicone</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>arpitha</t>
+  </si>
+  <si>
+    <t>bunny</t>
+  </si>
+  <si>
+    <t>Add Items</t>
+  </si>
+  <si>
+    <t>iphoneseries</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/user/index?un=arpitha&amp;ut=staff&amp;Search=sr</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,13 +122,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,9 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -432,24 +491,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7rmartProject/src/test/resources/TestData.xlsx
+++ b/7rmartProject/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="10730" windowHeight="3220" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="10730" windowHeight="2830" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,12 +134,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -605,7 +614,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,7 +624,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
@@ -641,5 +650,6 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>